--- a/api/src/nlp/__data__/mapper/POKeywordsMapperData.xlsx
+++ b/api/src/nlp/__data__/mapper/POKeywordsMapperData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draja\Hackathon\CAG\api\src\nlp\__data__\mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25559CAE-6923-4DE2-A5EF-CEBBED2B5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C3B16-0637-4353-9958-3AB51B187058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>title</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>processobject</t>
+  </si>
+  <si>
+    <t>Tokens</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,10 +413,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -483,6 +489,14 @@
       </c>
       <c r="B10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/api/src/nlp/__data__/mapper/POKeywordsMapperData.xlsx
+++ b/api/src/nlp/__data__/mapper/POKeywordsMapperData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draja\Hackathon\CAG\api\src\nlp\__data__\mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C3B16-0637-4353-9958-3AB51B187058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E350B4B8-DB30-4A63-89B5-DD00CD0BCA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>title</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Keywords</t>
+  </si>
+  <si>
+    <t>require</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,6 +502,70 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/src/nlp/__data__/mapper/POKeywordsMapperData.xlsx
+++ b/api/src/nlp/__data__/mapper/POKeywordsMapperData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draja\Hackathon\CAG\api\src\nlp\__data__\mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E350B4B8-DB30-4A63-89B5-DD00CD0BCA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A01844-808F-4AF2-B44A-40777C616072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>title</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>require</t>
+  </si>
+  <si>
+    <t>isByCopy</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,6 +572,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
